--- a/Results/Research question 2/Research question 2.xlsx
+++ b/Results/Research question 2/Research question 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SELAB\Desktop\SiHyeon\MicroDVI\Results\Research question 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="370">
   <si>
     <t>Components</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,6 +1160,22 @@
   <si>
     <t>Linear
 alpha=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2832,7 +2848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2840,7 +2856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2848,7 +2864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2856,7 +2872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2864,12 +2880,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B86" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="array" ref="C86">(SUM(IF((C$2:C$74&lt;&gt;"") * ($B$2:$B$74 = C$2:C$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="array" ref="D86">(SUM(IF((D$2:D$74&lt;&gt;"") * ($B$2:$B$74 = D$2:D$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.79761904761904767</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="array" ref="E86">(SUM(IF((E$2:E$74&lt;&gt;"") * ($B$2:$B$74 = E$2:E$74), 1, 0)) + COUNTA($B$75:$B$85)) / COUNTA($B$2:$B$85)</f>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -2880,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3861,6 +3894,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="array" ref="C61">(SUM(IF((C$2:C$54&lt;&gt;"") * ($B$2:$B$54 = C$2:C$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="array" ref="D61">(SUM(IF((D$2:D$54&lt;&gt;"") * ($B$2:$B$54 = D$2:D$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="array" ref="E61">(SUM(IF((E$2:E$54&lt;&gt;"") * ($B$2:$B$54 = E$2:E$54), 1, 0)) + COUNTA($B$55:$B$60)) / COUNTA($B$2:$B$60)</f>
+        <v>0.98305084745762716</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,10 +3919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4542,6 +4592,23 @@
         <v>87</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="array" ref="C46">(SUM(IF((C$2:C$33&lt;&gt;"") * ($B$2:$B$33 = C$2:C$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="array" ref="D46">(SUM(IF((D$2:D$33&lt;&gt;"") * ($B$2:$B$33 = D$2:D$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="array" ref="E46">(SUM(IF((E$2:E$33&lt;&gt;"") * ($B$2:$B$33 = E$2:E$33), 1, 0)) + COUNTA($B$34:$B$45)) / COUNTA($B$2:$B$45)</f>
+        <v>0.97727272727272729</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4550,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5227,6 +5294,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="array" ref="C41">(SUM(IF((C$2:C$38&lt;&gt;"") * ($B$2:$B$38 = C$2:C$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.89743589743589747</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="array" ref="D41">(SUM(IF((D$2:D$38&lt;&gt;"") * ($B$2:$B$38 = D$2:D$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="array" ref="E41">(SUM(IF((E$2:E$38&lt;&gt;"") * ($B$2:$B$38 = E$2:E$38), 1, 0)) + COUNTA($B$39:$B$40)) / COUNTA($B$2:$B$40)</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5235,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7709,7 +7793,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>332</v>
       </c>
@@ -7717,7 +7801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>333</v>
       </c>
@@ -7725,7 +7809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -7733,7 +7817,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -7741,7 +7825,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -7749,7 +7833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>337</v>
       </c>
@@ -7757,7 +7841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>338</v>
       </c>
@@ -7765,7 +7849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>339</v>
       </c>
@@ -7773,7 +7857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>340</v>
       </c>
@@ -7781,7 +7865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>341</v>
       </c>
@@ -7789,7 +7873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>342</v>
       </c>
@@ -7797,7 +7881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -7805,12 +7889,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>344</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B174" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="array" ref="C174">(SUM(IF((C$2:C$131&lt;&gt;"") * ($B$2:$B$131 = C$2:C$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.76162790697674421</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="array" ref="D174">(SUM(IF((D$2:D$131&lt;&gt;"") * ($B$2:$B$131 = D$2:D$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.73837209302325579</v>
+      </c>
+      <c r="E174" s="1">
+        <f t="array" ref="E174">(SUM(IF((E$2:E$131&lt;&gt;"") * ($B$2:$B$131 = E$2:E$131), 1, 0)) + COUNTA($B$132:$B$173)) / COUNTA($B$2:$B$173)</f>
+        <v>0.76162790697674421</v>
       </c>
     </row>
   </sheetData>
